--- a/report/tables.xlsx
+++ b/report/tables.xlsx
@@ -12,6 +12,8 @@
     <sheet name="Table 2" sheetId="3" r:id="rId3"/>
     <sheet name="Table 3" sheetId="4" r:id="rId4"/>
     <sheet name="Table 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Table 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Table 6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -355,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +423,30 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Table 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Differences in study variable distribution between participant with and without testis cancer relapse. Numeric variables are presented as medians with interqurtile ranges (IQR) and ranges. Categorical variables are presented as percentages and counts within the complete observation set.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Table 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Characteristic of multi-paramater LASSO Cox models of effects of PRL concentration and PRL strata on relapse-free survival.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -428,7 +454,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1524,6 +1550,72 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LDH_class</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lactate dehydrogenase, blood concentration strata</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LDH strata</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0 - 190 U/L, &gt; 190 U/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AFP_class</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alpha fetoprotein, blood concentration strata</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AFP strata</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0 - 40 ng/mL, &gt; 40 ng/mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HCG_class</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Human chorionic gonadotropin, blood concentration strata</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>HCG strata</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0 - 5 IU/L, &gt; 5 IU/L</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1531,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1955,15 +2047,91 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>pathology</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AFP, ng/mL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3 [IQR: 2 - 8.2]
+range: 0.7 - 24000
+complete: n = 436</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pathology</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LDH, U/L</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>200 [IQR: 180 - 260]
+range: 3.1 - 2900
+complete: n = 423</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pathology</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LDH strata</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0 - 190 U/L: 39% (163)
+&gt; 190 U/L: 61% (260)
+complete: n = 423</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>pathology</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AFP strata</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0 - 40 ng/mL: 85% (371)
+&gt; 40 ng/mL: 15% (65)
+complete: n = 436</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>hormones</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>LH, mU/mL</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>3.2 [IQR: 1.4 - 5.6]
 range: 0 - 47
@@ -1971,18 +2139,18 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>hormones</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>FSH, mU/mL</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>5.2 [IQR: 1.7 - 9.7]
 range: 0 - 100
@@ -1990,18 +2158,18 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>hormones</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>PRL, µU/mL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>120 [IQR: 14 - 200]
 range: 2.4 - 1300
@@ -2009,18 +2177,18 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>hormones</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Total testosterone, ng/mL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>4.4 [IQR: 3.3 - 6]
 range: 1 - 17
@@ -2028,18 +2196,18 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>hormones</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Free testosterone, ng/mL</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>10 [IQR: 7.2 - 14]
 range: 2.2 - 60
@@ -2047,18 +2215,18 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>hormones</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>SHBG, nmol/L</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>32 [IQR: 22 - 44]
 range: 6.3 - 160
@@ -2066,18 +2234,18 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>hormones</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>HCG, IU/L</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>1 [IQR: 1 - 9]
 range: 0.2 - 18000
@@ -2085,56 +2253,18 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>hormones</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>AFP, ng/mL</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3 [IQR: 2 - 8.2]
-range: 0.7 - 24000
-complete: n = 436</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>hormones</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>LDH, U/L</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>200 [IQR: 180 - 260]
-range: 3.1 - 2900
-complete: n = 423</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>hormones</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>E2, pg/mL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>29 [IQR: 19 - 42]
 range: 0.5 - 200
@@ -2142,18 +2272,37 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>hormones</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HCG strata</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0 - 5 IU/L: 70% (306)
+&gt; 5 IU/L: 30% (130)
+complete: n = 436</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>treatment</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Type of surgery</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>resection: 100% (438)
 enucleation: 0.23% (1)
@@ -2161,90 +2310,90 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>treatment</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Chemotherapy</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>50% (219)
 complete: n = 434</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>treatment</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Radiation</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>3.9% (17)
 complete: n = 433</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>treatment</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Retroperitoneal lymphadenectomy</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>7.8% (34)
 complete: n = 435</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>treatment</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Testosterone replacement</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>8.4% (34)
 complete: n = 406</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>prognosis</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Follow-up, days</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>1300 [IQR: 540 - 2000]
 range: 0 - 4700
@@ -2252,18 +2401,18 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>prognosis</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Relapse</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>7.3% (32)
 complete: n = 439</t>
@@ -2277,7 +2426,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3030,6 +3179,63 @@
       </c>
       <c r="E39">
         <v>0.4250176087591408</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LDH strata</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>423</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>3.644646924829157</v>
+      </c>
+      <c r="E40">
+        <v>0.1470373942669988</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AFP strata</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>436</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0.683371298405467</v>
+      </c>
+      <c r="E41">
+        <v>0.1106522587009888</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HCG strata</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>436</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0.683371298405467</v>
+      </c>
+      <c r="E42">
+        <v>0.161569391982454</v>
       </c>
     </row>
   </sheetData>
@@ -3810,4 +4016,1272 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>no_relapse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>relapse</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>significance</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>eff_size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Age at surgery, years</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>35 [IQR: 28 - 43]
+range: 17 - 86
+complete: n = 407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>35 [IQR: 27 - 42]
+range: 17 - 57
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>r = 0.0037</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Body mass index, kg/m2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25 [IQR: 23 - 28]
+range: 17 - 41
+complete: n = 306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25 [IQR: 23 - 28]
+range: 21 - 32
+complete: n = 22</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>r = 0.006</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Body weight class</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>normal: 47% (145)
+overweight: 37% (114)
+obesity: 15% (47)
+complete: n = 306</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>normal: 55% (12)
+overweight: 27% (6)
+obesity: 18% (4)
+complete: n = 22</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ns (p = 0.98)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V = 0.052</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tumor stage</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>I: 65% (264)
+II: 30% (123)
+III: 4.9% (20)
+complete: n = 407</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>I: 75% (24)
+II: 22% (7)
+III: 3.1% (1)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V = 0.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Residual tumor</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>R0: 98% (400)
+R1: 1.7% (7)
+complete: n = 407</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>R0: 97% (31)
+R1: 3.1% (1)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>V = 0.027</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tumor size, cm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3 [IQR: 1.7 - 4.5]
+range: 0.3 - 15
+complete: n = 403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3.4 [IQR: 2.2 - 5]
+range: 0.5 - 12
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ns (p = 0.88)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>r = 0.053</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rete testis invaded</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>37% (148)
+complete: n = 401</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>31% (10)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ns (p = 0.98)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V = 0.031</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lymphovascular invasion</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>31% (126)
+complete: n = 405</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>25% (8)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.98)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V = 0.035</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lugano class</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I: 80% (317)
+II: 16% (63)
+III: 4.5% (18)
+complete: n = 398</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>I: 94% (29)
+II: 3.2% (1)
+III: 3.2% (1)
+complete: n = 31</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ns (p = 0.65)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V = 0.095</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IGCCCG risk</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>good: 95% (214)
+intermediate: 4% (9)
+poor: 1.3% (3)
+complete: n = 226</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>good: 100% (7)
+intermediate: 0% (0)
+poor: 0% (0)
+complete: n = 7</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>V = 0.041</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Histology</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>seminoma: 64% (262)
+mixed: 36% (145)
+complete: n = 407</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>seminoma: 55% (17)
+mixed: 45% (14)
+complete: n = 31</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>V = 0.051</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Teratoma, %</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 100
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 7.5]
+range: 0 - 100
+complete: n = 31</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ns (p = 0.32)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>r = 0.096</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Embyonal cancer, %</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 10]
+range: 0 - 100
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 3.8]
+range: 0 - 95
+complete: n = 30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>r = 0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chorion cancer, %</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 20
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 60
+complete: n = 31</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ns (p = 0.65)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>r = 0.071</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Yolk sac cancer, %</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 100
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 100
+complete: n = 30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>r = 0.041</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Seminoma, %</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100 [IQR: 18 - 100]
+range: 0 - 100
+complete: n = 403</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>100 [IQR: 0 - 100]
+range: 0 - 100
+complete: n = 31</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ns (p = 0.79)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>r = 0.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Teratoma &gt;= 75%</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4.2% (17)
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9.7% (3)
+complete: n = 31</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>V = 0.067</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Embryonic cancer &gt;= 75%</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12% (48)
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3.3% (1)
+complete: n = 30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ns (p = 0.88)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>V = 0.069</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Yolk sac cancer &gt;= 75%</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.2% (5)
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3.3% (1)
+complete: n = 30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>V = 0.046</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Seminoma &gt;= 75%</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>68% (276)
+complete: n = 403</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>61% (19)
+complete: n = 31</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>V = 0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AFP, ng/mL</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3 [IQR: 1.9 - 8.2]
+range: 0.7 - 24000
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3 [IQR: 2.3 - 7.6]
+range: 1.2 - 9400
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>r = 0.038</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LDH, U/L</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>200 [IQR: 180 - 260]
+range: 3.1 - 2900
+complete: n = 395</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>200 [IQR: 170 - 260]
+range: 120 - 1000
+complete: n = 28</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ns (p = 0.98)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>r = 0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LDH strata</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0 - 190 U/L: 38% (151)
+&gt; 190 U/L: 62% (244)
+complete: n = 395</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0 - 190 U/L: 43% (12)
+&gt; 190 U/L: 57% (16)
+complete: n = 28</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>V = 0.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AFP strata</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0 - 40 ng/mL: 85% (345)
+&gt; 40 ng/mL: 15% (59)
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0 - 40 ng/mL: 81% (26)
+&gt; 40 ng/mL: 19% (6)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ns (p = 0.98)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>V = 0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LH, mU/mL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3.2 [IQR: 1.4 - 5.6]
+range: 0 - 47
+complete: n = 346</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3.3 [IQR: 1.4 - 6.7]
+range: 0 - 25
+complete: n = 24</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>r = 0.00015</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FSH, mU/mL</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5.2 [IQR: 1.7 - 9.6]
+range: 0 - 100
+complete: n = 344</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.8 [IQR: 2.2 - 11]
+range: 0 - 38
+complete: n = 24</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>r = 0.006</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PRL, µU/mL</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>120 [IQR: 13 - 200]
+range: 2.4 - 1300
+complete: n = 343</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>170 [IQR: 130 - 210]
+range: 86 - 620
+complete: n = 24</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>p = 0.039</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>r = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Total testosterone, ng/mL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4.4 [IQR: 3.3 - 6]
+range: 1 - 17
+complete: n = 349</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.2 [IQR: 3.6 - 5.7]
+range: 1.8 - 10
+complete: n = 25</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>r = 0.015</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HCG, IU/L</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 7.1]
+range: 0.2 - 18000
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 50]
+range: 1 - 5600
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ns (p = 0.19)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>r = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>E2, pg/mL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>29 [IQR: 18 - 42]
+range: 0.5 - 200
+complete: n = 341</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>32 [IQR: 21 - 41]
+range: 0.5 - 130
+complete: n = 24</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ns (p = 0.98)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>r = 0.022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HCG strata</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0 - 5 IU/L: 71% (288)
+&gt; 5 IU/L: 29% (116)
+complete: n = 404</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0 - 5 IU/L: 56% (18)
+&gt; 5 IU/L: 44% (14)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ns (p = 0.65)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>V = 0.086</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Type of surgery</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>resection: 100% (406)
+enucleation: 0.25% (1)
+complete: n = 407</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>resection: 100% (32)
+enucleation: 0% (0)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ns (p = 1)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>V = 0.013</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chemotherapy</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>53% (212)
+complete: n = 402</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22% (7)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>p = 0.027</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Radiation</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4.2% (17)
+complete: n = 401</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0% (0)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>V = 0.057</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Retroperitoneal lymphadenectomy</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>8.2% (33)
+complete: n = 403</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3.1% (1)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>V = 0.049</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Testosterone replacement</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>7% (26)
+complete: n = 374</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>25% (8)
+complete: n = 32</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>p = 0.027</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>V = 0.18</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LASSO model type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Concordance index</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nagelkirke R²</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Brier Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fist-/second-term PRL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>0.85</v>
+      </c>
+      <c r="D2">
+        <v>0.26</v>
+      </c>
+      <c r="E2">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fist-/second-term PRL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10-fold cross-validation</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>0.84</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PRL strata</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>0.86</v>
+      </c>
+      <c r="D4">
+        <v>0.29</v>
+      </c>
+      <c r="E4">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PRL strata</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10-fold cross-validation</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
+        <v>0.27</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/report/tables.xlsx
+++ b/report/tables.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Table 8" sheetId="9" r:id="rId9"/>
     <sheet name="Table 9" sheetId="10" r:id="rId10"/>
     <sheet name="Table 10" sheetId="11" r:id="rId11"/>
+    <sheet name="Table 11" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -361,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +448,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Demographic and cancer-related characteristic of study participants with seminomas and mixed-type cancers. Numeric variables are presented as medians with interqurtile ranges (IQR) and ranges. Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Demographic and cancer-related characteristic of study participants with seminomas and non-seminomatous germ cell tumors. Numeric variables are presented as medians with interqurtile ranges (IQR) and ranges. Categorical variables are presented as percentages and counts within the complete observation set.</t>
         </is>
       </c>
     </row>
@@ -459,7 +460,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pre-surgery levels of sex hormones in study participants with seminomas and mixed-type cancers. Numeric variables are presented as medians with interqurtile ranges (IQR) and ranges. Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Pre-surgery levels of sex hormones in study participants with seminomas and non-seminomatous germ cell tumors. Numeric variables are presented as medians with interqurtile ranges (IQR) and ranges. Categorical variables are presented as percentages and counts within the complete observation set.</t>
         </is>
       </c>
     </row>
@@ -494,6 +495,18 @@
         </is>
       </c>
       <c r="B11" t="inlineStr">
+        <is>
+          <t>Significant differences in neutral and pituitary hormonal subset participants split by cancer marker positivity. Numeric variables are presented as medians with interqurtile ranges (IQR) and ranges. Categorical variables are presented as percentages and counts within the complete observation set.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Table 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Explanatory variables in multi-parameter Elastic Cox modeling of relapse-free survival.</t>
         </is>
@@ -506,7 +519,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +567,7 @@
         <is>
           <t>35 [IQR: 29 - 41]
 range: 17 - 62
-complete: n = 190</t>
+complete: n = 192</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -611,7 +624,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>p = 0.0077</t>
+          <t>p = 0.0072</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -652,7 +665,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>p = 0.0075</t>
+          <t>p = 0.0068</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -671,7 +684,7 @@
         <is>
           <t>2.8 [IQR: 1.5 - 4.5]
 range: 0.3 - 12
-complete: n = 189</t>
+complete: n = 190</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -690,12 +703,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>p = 0.0051</t>
+          <t>p = 0.0055</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>η² = 0.028</t>
+          <t>η² = 0.027</t>
         </is>
       </c>
     </row>
@@ -707,10 +720,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I: 72% (137)
+          <t>I: 72% (139)
 II: 25% (48)
 III: 2.6% (5)
-complete: n = 190</t>
+complete: n = 192</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -731,12 +744,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>p = 0.017</t>
+          <t>p = 0.014</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>V = 0.13</t>
+          <t>V = 0.14</t>
         </is>
       </c>
     </row>
@@ -748,10 +761,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>I: 84% (157)
+          <t>I: 85% (159)
 II: 13% (25)
-III: 2.2% (4)
-complete: n = 186</t>
+III: 2.1% (4)
+complete: n = 188</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -772,7 +785,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>p = 0.0023</t>
+          <t>p = 0.0018</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -830,8 +843,8 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>35% (65)
-complete: n = 187</t>
+          <t>35% (66)
+complete: n = 189</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -848,12 +861,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ns (p = 0.99)</t>
+          <t>ns (p = 1)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>V = 0.006</t>
+          <t>V = 0.0043</t>
         </is>
       </c>
     </row>
@@ -865,8 +878,8 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25% (47)
-complete: n = 190</t>
+          <t>24% (47)
+complete: n = 192</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -883,7 +896,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>p = 0.0023</t>
+          <t>p = 0.0018</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -900,22 +913,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>seminoma: 69% (132)
-mixed: 31% (58)
-complete: n = 190</t>
+          <t>seminoma: 70% (134)
+NSGCT: 30% (58)
+complete: n = 192</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>seminoma: 23% (19)
-mixed: 77% (65)
+NSGCT: 77% (65)
 complete: n = 84</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>seminoma: 88% (76)
-mixed: 12% (10)
+NSGCT: 12% (10)
 complete: n = 86</t>
         </is>
       </c>
@@ -940,7 +953,7 @@
         <is>
           <t>0 [IQR: 0 - 0]
 range: 0 - 100
-complete: n = 188</t>
+complete: n = 190</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -978,7 +991,7 @@
         <is>
           <t>0 [IQR: 0 - 0]
 range: 0 - 100
-complete: n = 188</t>
+complete: n = 190</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1016,7 +1029,7 @@
         <is>
           <t>0 [IQR: 0 - 0]
 range: 0 - 100
-complete: n = 188</t>
+complete: n = 190</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1052,9 +1065,9 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100 [IQR: 78 - 100]
+          <t>100 [IQR: 82 - 100]
 range: 0 - 100
-complete: n = 188</t>
+complete: n = 190</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1090,8 +1103,8 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.3% (8)
-complete: n = 188</t>
+          <t>4.2% (8)
+complete: n = 190</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1108,7 +1121,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ns (p = 0.085)</t>
+          <t>ns (p = 0.079)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1126,7 +1139,7 @@
       <c r="B17" t="inlineStr">
         <is>
           <t>11% (20)
-complete: n = 188</t>
+complete: n = 190</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1143,7 +1156,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>p = 0.033</t>
+          <t>p = 0.031</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1160,8 +1173,8 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>no: 100% (188)
-complete: n = 188</t>
+          <t>no: 100% (190)
+complete: n = 190</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1196,7 +1209,7 @@
       <c r="B19" t="inlineStr">
         <is>
           <t>2.1% (4)
-complete: n = 188</t>
+complete: n = 190</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1230,8 +1243,8 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>75% (141)
-complete: n = 188</t>
+          <t>75% (143)
+complete: n = 190</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1343,7 +1356,7 @@
         <is>
           <t>200 [IQR: 170 - 230]
 range: 3.1 - 920
-complete: n = 182</t>
+complete: n = 183</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1362,7 +1375,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>p = 0.0095</t>
+          <t>p = 0.0088</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1380,8 +1393,8 @@
       <c r="B24" t="inlineStr">
         <is>
           <t>0 - 150 U/L: 9.3% (17)
-&gt; 150 U/L: 91% (165)
-complete: n = 182</t>
+&gt; 150 U/L: 91% (166)
+complete: n = 183</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1400,7 +1413,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ns (p = 0.27)</t>
+          <t>ns (p = 0.28)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1417,9 +1430,9 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>resection: 100% (190)
+          <t>resection: 100% (192)
 enucleation: 0% (0)
-complete: n = 190</t>
+complete: n = 192</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1456,7 +1469,7 @@
       <c r="B26" t="inlineStr">
         <is>
           <t>5.8% (11)
-complete: n = 189</t>
+complete: n = 191</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1473,12 +1486,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>p = 0.0077</t>
+          <t>p = 0.0068</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>V = 0.17</t>
+          <t>V = 0.18</t>
         </is>
       </c>
     </row>
@@ -1490,9 +1503,9 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R0: 99% (188)
-R1: 1.1% (2)
-complete: n = 190</t>
+          <t>R0: 99% (190)
+R1: 1% (2)
+complete: n = 192</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1511,7 +1524,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ns (p = 0.13)</t>
+          <t>ns (p = 0.12)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1528,8 +1541,8 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>50% (94)
-complete: n = 188</t>
+          <t>50% (95)
+complete: n = 190</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1546,7 +1559,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>p = 0.042</t>
+          <t>p = 0.04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1563,8 +1576,8 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.3% (8)
-complete: n = 188</t>
+          <t>4.2% (8)
+complete: n = 190</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1581,12 +1594,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ns (p = 0.71)</t>
+          <t>ns (p = 0.72)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>V = 0.046</t>
+          <t>V = 0.045</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1612,7 @@
       <c r="B30" t="inlineStr">
         <is>
           <t>5.1% (9)
-complete: n = 175</t>
+complete: n = 176</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1698,6 +1711,120 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>η² = 0.0038</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HCG, IU/L</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 0.3 - 40
+complete: n = 190</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>79 [IQR: 20 - 400]
+range: 0.2 - 18000
+complete: n = 84</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 0.5 - 96
+complete: n = 86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>η² = 0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HCG strata</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0 - 2 IU/L: 78% (148)
+&gt; 2 IU/L: 22% (42)
+complete: n = 190</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0 - 2 IU/L: 6% (5)
+&gt; 2 IU/L: 94% (79)
+complete: n = 84</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0 - 2 IU/L: 78% (67)
+&gt; 2 IU/L: 22% (19)
+complete: n = 86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>V = 0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Marker status</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AFP/HCG-: 68% (130)
+AFP/HCG+: 32% (60)
+complete: n = 190</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AFP/HCG-: 4.8% (4)
+AFP/HCG+: 95% (80)
+complete: n = 84</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AFP/HCG-: 67% (58)
+AFP/HCG+: 33% (28)
+complete: n = 86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>V = 0.54</t>
         </is>
       </c>
     </row>
@@ -1707,6 +1834,691 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hormonal subset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AFP/HCG-</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AFP/HCG+</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tumor size, cm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2.3 [IQR: 1.3 - 3.5]
+range: 0.3 - 8.5
+complete: n = 129</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4 [IQR: 2.6 - 5.8]
+range: 0.5 - 12
+complete: n = 60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>r = 0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lugano class</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>I: 91% (116)
+II: 8.6% (11)
+III: 0.78% (1)
+complete: n = 128</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>I: 71% (41)
+II: 24% (14)
+III: 5.2% (3)
+complete: n = 58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>p = 0.0072</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>V = 0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Histology</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>seminoma: 78% (102)
+NSGCT: 22% (28)
+complete: n = 130</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>seminoma: 50% (30)
+NSGCT: 50% (30)
+complete: n = 60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V = 0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Embyonal cancer, %</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 100
+complete: n = 128</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 29]
+range: 0 - 100
+complete: n = 60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>p = 0.012</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>r = 0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yolk sac cancer, %</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 15
+complete: n = 128</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 100
+complete: n = 60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>r = 0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Seminoma, %</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>100 [IQR: 100 - 100]
+range: 0 - 100
+complete: n = 128</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98 [IQR: 0 - 100]
+range: 0 - 100
+complete: n = 60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>r = 0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yolk sac cancer &gt;= 75%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0% (0)
+complete: n = 128</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.7% (4)
+complete: n = 60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>p = 0.046</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V = 0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Seminoma &gt;= 75%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>84% (107)
+complete: n = 128</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57% (34)
+complete: n = 60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V = 0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LDH, U/L</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>180 [IQR: 160 - 210]
+range: 3.1 - 830
+complete: n = 124</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>230 [IQR: 190 - 310]
+range: 110 - 920
+complete: n = 58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>r = 0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Retroperitoneal lymphadenectomy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.3% (3)
+complete: n = 129</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13% (8)
+complete: n = 60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>p = 0.024</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V = 0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tumor stage</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>I: 83% (48)
+II: 16% (9)
+III: 1.7% (1)
+complete: n = 58</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>I: 43% (12)
+II: 46% (13)
+III: 11% (3)
+complete: n = 28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>p = 0.005</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V = 0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tumor size, cm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2.2 [IQR: 1.5 - 3.5]
+range: 0.8 - 11
+complete: n = 58</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.5 [IQR: 2.5 - 7.5]
+range: 1 - 15
+complete: n = 27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p = 0.0015</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>r = 0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lymphovascular invasion</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10% (6)
+complete: n = 58</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>57% (16)
+complete: n = 28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>V = 0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Embyonal cancer, %</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 50
+complete: n = 58</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 10]
+range: 0 - 100
+complete: n = 28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>p = 0.0015</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>r = 0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Seminoma, %</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>100 [IQR: 100 - 100]
+range: 0 - 100
+complete: n = 58</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100 [IQR: 70 - 100]
+range: 0 - 100
+complete: n = 28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>p = 0.014</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>r = 0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Embryonic cancer &gt;= 75%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0% (0)
+complete: n = 58</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18% (5)
+complete: n = 28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>p = 0.018</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>V = 0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LDH, U/L</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>200 [IQR: 180 - 240]
+range: 140 - 2900
+complete: n = 57</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>270 [IQR: 210 - 370]
+range: 140 - 1600
+complete: n = 27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p = 0.016</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>r = 0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chemotherapy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40% (23)
+complete: n = 57</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>71% (20)
+complete: n = 28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>p = 0.046</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>V = 0.29</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1735,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2018,7 +2830,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>seminoma, mixed</t>
+          <t>seminoma, NSGCT</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2842,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Percentage of teratoma histology of a mixed-histology tumor</t>
+          <t>Percentage of teratoma histology</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2052,7 +2864,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Percentage of embroyonal cancer within a mixed-histology tumor</t>
+          <t>Percentage of embroyonal cancer histology</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2074,7 +2886,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Percentage of chorion cancer within a mixed-histology tumor</t>
+          <t>Percentage of chorion cancer histology</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2096,7 +2908,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Percentage of yolk sac cancer within a mixed-histology tumor</t>
+          <t>Percentage of yolk sac cancer histology</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2118,7 +2930,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Percentage of seminoma within a mixed histology tumor</t>
+          <t>Percentage of seminoma histology</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2879,6 +3691,28 @@
       <c r="C53" t="inlineStr">
         <is>
           <t>Date of relapse</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>marker_status</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AFP and HCG status: negative for both markers or positive for at least one of them</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Marker status</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AFP/HCG-, AFP/HCG+</t>
         </is>
       </c>
     </row>
@@ -2889,7 +3723,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3794,6 +4628,25 @@
       </c>
       <c r="E47">
         <v>0.059</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Marker status</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>436</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0.68</v>
+      </c>
+      <c r="E48">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -4648,7 +5501,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4805,7 +5658,7 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>seminoma: 64% (279)
-mixed: 36% (159)
+NSGCT: 36% (159)
 complete: n = 438</t>
         </is>
       </c>
@@ -5004,10 +5857,52 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>HCG, IU/L</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 9]
+range: 0.2 - 18000
+complete: n = 436</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HCG strata</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0 - 2 IU/L: 63% (273)
+&gt; 2 IU/L: 37% (163)
+complete: n = 436</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Marker status</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AFP/HCG-: 55% (239)
+AFP/HCG+: 45% (197)
+complete: n = 436</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Type of surgery</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>resection: 100% (438)
 enucleation: 0.23% (1)
@@ -5015,26 +5910,26 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Retroperitoneal lymphadenectomy</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>7.8% (34)
 complete: n = 435</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Residual tumor</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>R0: 98% (431)
 R1: 1.8% (8)
@@ -5042,39 +5937,39 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Chemotherapy</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>50% (219)
 complete: n = 434</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Radiation</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>3.9% (17)
 complete: n = 433</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Testosterone replacement</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>8.4% (34)
 complete: n = 406</t>
@@ -5088,7 +5983,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5223,38 +6118,10 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HCG, IU/L</t>
+          <t>FSH, mU/mL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 9]
-range: 0.2 - 18000
-complete: n = 436</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HCG strata</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0 - 2 IU/L: 63% (273)
-&gt; 2 IU/L: 37% (163)
-complete: n = 436</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FSH, mU/mL</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
         <is>
           <t>5.2 [IQR: 1.7 - 9.7]
 range: 0 - 100
@@ -5262,13 +6129,13 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>FSH strata</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0 - 1 mU/mL: 22% (81)
 1 - 10 mU/mL: 54% (198)
@@ -5277,13 +6144,13 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>LH, mU/mL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>3.2 [IQR: 1.4 - 5.6]
 range: 0 - 47
@@ -5291,13 +6158,13 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>LH strata</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0 - 1.7 mU/mL: 29% (106)
 1.7 - 8.6 mU/mL: 61% (225)
@@ -5313,7 +6180,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5332,7 +6199,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mixed</t>
+          <t>NSGCT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -5432,7 +6299,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ns (p = 0.44)</t>
+          <t>ns (p = 0.43)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -5591,7 +6458,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ns (p = 0.098)</t>
+          <t>ns (p = 0.097)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5756,176 +6623,269 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>HCG, IU/L</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2.2]
+range: 0.5 - 13000
+complete: n = 277</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6.9 [IQR: 1 - 91]
+range: 0.2 - 18000
+complete: n = 158</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>r = 0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HCG strata</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0 - 2 IU/L: 74% (206)
+&gt; 2 IU/L: 26% (71)
+complete: n = 277</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0 - 2 IU/L: 42% (66)
+&gt; 2 IU/L: 58% (92)
+complete: n = 158</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>V = 0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Marker status</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AFP/HCG-: 72% (199)
+AFP/HCG+: 28% (78)
+complete: n = 277</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AFP/HCG-: 25% (39)
+AFP/HCG+: 75% (119)
+complete: n = 158</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>V = 0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Type of surgery</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>resection: 100% (278)
 enucleation: 0.36% (1)
 complete: n = 279</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>resection: 100% (159)
 enucleation: 0% (0)
 complete: n = 159</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>ns (p = 1)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>V = 0.036</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Retroperitoneal lymphadenectomy</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0% (0)
 complete: n = 277</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>22% (34)
 complete: n = 157</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>V = 0.39</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Residual tumor</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>R0: 99% (277)
 R1: 0.72% (2)
 complete: n = 279</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>R0: 96% (153)
 R1: 3.8% (6)
 complete: n = 159</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ns (p = 0.074)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ns (p = 0.073)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>V = 0.11</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Chemotherapy</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>40% (110)
 complete: n = 276</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>69% (109)
 complete: n = 157</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>V = 0.28</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Radiation</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>5.8% (16)
 complete: n = 275</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>0.64% (1)
 complete: n = 157</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>p = 0.026</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>V = 0.13</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Testosterone replacement</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>8.9% (23)
 complete: n = 257</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>7.4% (11)
 complete: n = 148</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>ns (p = 0.78)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>V = 0.026</t>
         </is>
@@ -5938,7 +6898,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5957,7 +6917,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mixed</t>
+          <t>NSGCT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -6057,7 +7017,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ns (p = 0.07)</t>
+          <t>ns (p = 0.069)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -6214,7 +7174,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ns (p = 0.4)</t>
+          <t>ns (p = 0.39)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -6226,103 +7186,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HCG, IU/L</t>
+          <t>FSH, mU/mL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2.2]
-range: 0.5 - 13000
-complete: n = 277</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6.9 [IQR: 1 - 91]
-range: 0.2 - 18000
-complete: n = 158</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>r = 0.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HCG strata</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0 - 2 IU/L: 74% (206)
-&gt; 2 IU/L: 26% (71)
-complete: n = 277</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0 - 2 IU/L: 42% (66)
-&gt; 2 IU/L: 58% (92)
-complete: n = 158</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>V = 0.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FSH, mU/mL</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
         <is>
           <t>7.4 [IQR: 4.2 - 13]
 range: 0 - 100
 complete: n = 232</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>1.6 [IQR: 0 - 4.7]
 range: 0 - 40
 complete: n = 136</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>r = 0.49</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>FSH strata</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0 - 1 mU/mL: 7.3% (17)
 1 - 10 mU/mL: 59% (137)
@@ -6330,7 +7228,7 @@
 complete: n = 232</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>0 - 1 mU/mL: 47% (64)
 1 - 10 mU/mL: 45% (61)
@@ -6338,55 +7236,55 @@
 complete: n = 136</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>V = 0.49</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>LH, mU/mL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>4 [IQR: 2.8 - 6.4]
 range: 0 - 47
 complete: n = 234</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>1.2 [IQR: 0 - 3.6]
 range: 0 - 20
 complete: n = 136</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>r = 0.43</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>LH strata</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0 - 1.7 mU/mL: 12% (28)
 1.7 - 8.6 mU/mL: 75% (175)
@@ -6394,7 +7292,7 @@
 complete: n = 234</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>0 - 1.7 mU/mL: 57% (78)
 1.7 - 8.6 mU/mL: 37% (50)
@@ -6402,12 +7300,12 @@
 complete: n = 136</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>V = 0.48</t>
         </is>
@@ -6420,7 +7318,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6460,10 +7358,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>7.399999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6481,10 +7379,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>4.799999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.5e-137</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6502,10 +7400,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.699999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6523,13 +7421,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C5">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D5">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6544,10 +7442,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6565,10 +7463,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6586,13 +7484,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C8">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D8">
-        <v>4.3e-06</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6607,10 +7505,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>4.799999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.5e-137</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -6628,13 +7526,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C10">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D10">
-        <v>4.3e-06</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6649,10 +7547,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>1.399999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5.599999999999999e-136</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6670,13 +7568,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C12">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D12">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6691,10 +7589,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>6.799999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2.2e-137</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6715,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.1e-06</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -6736,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6754,13 +7652,13 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C16">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D16">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6775,13 +7673,13 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C17">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D17">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6796,10 +7694,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>1.399999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>5.599999999999999e-136</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -6817,13 +7715,13 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C19">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D19">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6838,10 +7736,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>9.899999999999996e-231</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6859,10 +7757,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>4.799999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>1.5e-137</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6880,13 +7778,13 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C22">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D22">
-        <v>4.3e-06</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6901,13 +7799,13 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C23">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D23">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6922,13 +7820,13 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C24">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D24">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6943,10 +7841,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6964,13 +7862,13 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C26">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D26">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6985,13 +7883,13 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C27">
-        <v>0.008399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="D27">
-        <v>0.00025</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -7009,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7027,13 +7925,13 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C29">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D29">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -7051,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.1e-06</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -7069,10 +7967,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -7090,13 +7988,13 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C32">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D32">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -7114,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -7132,10 +8030,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.099999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>4.499999999999999e-136</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -7156,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -7174,13 +8072,13 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C36">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D36">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7195,13 +8093,13 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C37">
-        <v>0.006</v>
+        <v>0.98</v>
       </c>
       <c r="D37">
-        <v>0.002</v>
+        <v>0.00032</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7216,13 +8114,13 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C38">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D38">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7237,10 +8135,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>6.599999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2.2e-137</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -7258,13 +8156,13 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C40">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D40">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7279,10 +8177,10 @@
         </is>
       </c>
       <c r="B41">
-        <v>4.799999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>1.5e-137</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -7300,13 +8198,13 @@
         </is>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D42">
-        <v>0.0018</v>
+        <v>0.018</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7321,13 +8219,13 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C43">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D43">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7342,13 +8240,13 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C44">
-        <v>0.0068</v>
+        <v>0.98</v>
       </c>
       <c r="D44">
-        <v>0.00087</v>
+        <v>0.00014</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7363,13 +8261,13 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C45">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D45">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7384,13 +8282,13 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C46">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D46">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7405,13 +8303,13 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C47">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D47">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7426,13 +8324,13 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C48">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D48">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7447,13 +8345,13 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C49">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D49">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7468,13 +8366,13 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C50">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D50">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7489,13 +8387,13 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C51">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D51">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7510,13 +8408,13 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C52">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D52">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7531,10 +8429,10 @@
         </is>
       </c>
       <c r="B53">
-        <v>9.899999999999996e-231</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7573,13 +8471,13 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C55">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D55">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7594,13 +8492,13 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.99</v>
+        <v>0.038</v>
       </c>
       <c r="C56">
-        <v>0.015</v>
+        <v>0.96</v>
       </c>
       <c r="D56">
-        <v>8.8e-06</v>
+        <v>9.1e-05</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7615,10 +8513,10 @@
         </is>
       </c>
       <c r="B57">
-        <v>1.399999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>5.599999999999999e-136</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7636,10 +8534,10 @@
         </is>
       </c>
       <c r="B58">
-        <v>4.299999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>1.3e-137</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7657,13 +8555,13 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C59">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D59">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7678,10 +8576,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>6.799999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2.2e-137</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -7699,13 +8597,13 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C61">
-        <v>0.0095</v>
+        <v>0.98</v>
       </c>
       <c r="D61">
-        <v>0.00011</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7723,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -7741,10 +8639,10 @@
         </is>
       </c>
       <c r="B63">
-        <v>9.499999999999996e-231</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -7762,13 +8660,13 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C64">
-        <v>0.0068</v>
+        <v>0.98</v>
       </c>
       <c r="D64">
-        <v>0.00087</v>
+        <v>0.00014</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7783,13 +8681,13 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C65">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D65">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7807,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -7828,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -7846,13 +8744,13 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.98</v>
+        <v>0.038</v>
       </c>
       <c r="C68">
-        <v>0.015</v>
+        <v>0.96</v>
       </c>
       <c r="D68">
-        <v>0.00051</v>
+        <v>9.1e-05</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7867,13 +8765,13 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C69">
-        <v>0.0092</v>
+        <v>0.97</v>
       </c>
       <c r="D69">
-        <v>0.00016</v>
+        <v>0.0016</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7888,13 +8786,13 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C70">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D70">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7909,13 +8807,13 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C71">
-        <v>0.006</v>
+        <v>0.98</v>
       </c>
       <c r="D71">
-        <v>0.002</v>
+        <v>0.00032</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7933,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -7993,13 +8891,13 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C75">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D75">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -8014,13 +8912,13 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C76">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D76">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -8035,10 +8933,10 @@
         </is>
       </c>
       <c r="B77">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -8056,13 +8954,13 @@
         </is>
       </c>
       <c r="B78">
-        <v>0.72</v>
+        <v>0.015</v>
       </c>
       <c r="C78">
-        <v>0.0056</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D78">
-        <v>0.27</v>
+        <v>0.048</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -8077,10 +8975,10 @@
         </is>
       </c>
       <c r="B79">
-        <v>7.699999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -8098,13 +8996,13 @@
         </is>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D80">
-        <v>0.00052</v>
+        <v>0.005</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -8119,13 +9017,13 @@
         </is>
       </c>
       <c r="B81">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C81">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D81">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -8143,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -8161,13 +9059,13 @@
         </is>
       </c>
       <c r="B83">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C83">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D83">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8182,13 +9080,13 @@
         </is>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="D84">
-        <v>0.0041</v>
+        <v>0.038</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8203,10 +9101,10 @@
         </is>
       </c>
       <c r="B85">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -8224,13 +9122,13 @@
         </is>
       </c>
       <c r="B86">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C86">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D86">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8245,13 +9143,13 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C87">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D87">
-        <v>4.3e-06</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8266,13 +9164,13 @@
         </is>
       </c>
       <c r="B88">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C88">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D88">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8287,10 +9185,10 @@
         </is>
       </c>
       <c r="B89">
-        <v>5.499999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>1.7e-137</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -8308,13 +9206,13 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C90">
-        <v>0.006</v>
+        <v>0.98</v>
       </c>
       <c r="D90">
-        <v>0.002</v>
+        <v>0.00032</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8350,13 +9248,13 @@
         </is>
       </c>
       <c r="B92">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="D92">
-        <v>0.19</v>
+        <v>0.038</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8371,13 +9269,13 @@
         </is>
       </c>
       <c r="B93">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C93">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D93">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -8392,13 +9290,13 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C94">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D94">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -8413,13 +9311,13 @@
         </is>
       </c>
       <c r="B95">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C95">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D95">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -8434,13 +9332,13 @@
         </is>
       </c>
       <c r="B96">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C96">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D96">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -8455,10 +9353,10 @@
         </is>
       </c>
       <c r="B97">
-        <v>1.499999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -8479,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -8497,13 +9395,13 @@
         </is>
       </c>
       <c r="B99">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C99">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D99">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -8518,10 +9416,10 @@
         </is>
       </c>
       <c r="B100">
-        <v>9.899999999999996e-231</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -8539,13 +9437,13 @@
         </is>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D101">
-        <v>0.00052</v>
+        <v>0.005</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -8560,13 +9458,13 @@
         </is>
       </c>
       <c r="B102">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C102">
-        <v>0.0068</v>
+        <v>0.98</v>
       </c>
       <c r="D102">
-        <v>0.00087</v>
+        <v>0.00014</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -8581,13 +9479,13 @@
         </is>
       </c>
       <c r="B103">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C103">
-        <v>0.0095</v>
+        <v>0.98</v>
       </c>
       <c r="D103">
-        <v>0.00011</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -8602,13 +9500,13 @@
         </is>
       </c>
       <c r="B104">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C104">
-        <v>0.006</v>
+        <v>0.98</v>
       </c>
       <c r="D104">
-        <v>0.002</v>
+        <v>0.00032</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -8626,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -8644,13 +9542,13 @@
         </is>
       </c>
       <c r="B106">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C106">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D106">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -8665,10 +9563,10 @@
         </is>
       </c>
       <c r="B107">
-        <v>1.099999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>4.499999999999999e-136</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -8686,13 +9584,13 @@
         </is>
       </c>
       <c r="B108">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C108">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D108">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -8707,13 +9605,13 @@
         </is>
       </c>
       <c r="B109">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C109">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D109">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -8731,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -8773,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -8791,13 +9689,13 @@
         </is>
       </c>
       <c r="B113">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C113">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D113">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -8833,10 +9731,10 @@
         </is>
       </c>
       <c r="B115">
-        <v>9.899999999999996e-231</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -8875,13 +9773,13 @@
         </is>
       </c>
       <c r="B117">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C117">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D117">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -8896,13 +9794,13 @@
         </is>
       </c>
       <c r="B118">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C118">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D118">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -8920,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -8938,13 +9836,13 @@
         </is>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D120">
-        <v>0.00052</v>
+        <v>0.005</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -8959,13 +9857,13 @@
         </is>
       </c>
       <c r="B121">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="D121">
-        <v>0.19</v>
+        <v>0.038</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -8980,13 +9878,13 @@
         </is>
       </c>
       <c r="B122">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C122">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D122">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -9025,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -9043,13 +9941,13 @@
         </is>
       </c>
       <c r="B125">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C125">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D125">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -9067,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -9085,13 +9983,13 @@
         </is>
       </c>
       <c r="B127">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C127">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D127">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -9106,10 +10004,10 @@
         </is>
       </c>
       <c r="B128">
-        <v>4.799999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>1.5e-137</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -9127,13 +10025,13 @@
         </is>
       </c>
       <c r="B129">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C129">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D129">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -9148,13 +10046,13 @@
         </is>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="D130">
-        <v>0.0041</v>
+        <v>0.038</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -9169,13 +10067,13 @@
         </is>
       </c>
       <c r="B131">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C131">
-        <v>0.0092</v>
+        <v>0.97</v>
       </c>
       <c r="D131">
-        <v>0.00016</v>
+        <v>0.0016</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -9190,13 +10088,13 @@
         </is>
       </c>
       <c r="B132">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C132">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D132">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -9211,13 +10109,13 @@
         </is>
       </c>
       <c r="B133">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C133">
-        <v>0.006</v>
+        <v>0.98</v>
       </c>
       <c r="D133">
-        <v>0.002</v>
+        <v>0.00032</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -9232,13 +10130,13 @@
         </is>
       </c>
       <c r="B134">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C134">
-        <v>0.0095</v>
+        <v>0.98</v>
       </c>
       <c r="D134">
-        <v>0.00011</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -9253,13 +10151,13 @@
         </is>
       </c>
       <c r="B135">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C135">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D135">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -9274,10 +10172,10 @@
         </is>
       </c>
       <c r="B136">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -9298,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -9316,13 +10214,13 @@
         </is>
       </c>
       <c r="B138">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C138">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D138">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -9337,10 +10235,10 @@
         </is>
       </c>
       <c r="B139">
-        <v>7.699999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -9358,13 +10256,13 @@
         </is>
       </c>
       <c r="B140">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C140">
-        <v>0.0095</v>
+        <v>0.98</v>
       </c>
       <c r="D140">
-        <v>0.00011</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -9379,10 +10277,10 @@
         </is>
       </c>
       <c r="B141">
-        <v>1.499999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -9421,13 +10319,13 @@
         </is>
       </c>
       <c r="B143">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C143">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D143">
-        <v>4.3e-06</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -9442,10 +10340,10 @@
         </is>
       </c>
       <c r="B144">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -9463,13 +10361,13 @@
         </is>
       </c>
       <c r="B145">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C145">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D145">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -9487,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -9505,13 +10403,13 @@
         </is>
       </c>
       <c r="B147">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C147">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D147">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -9526,13 +10424,13 @@
         </is>
       </c>
       <c r="B148">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C148">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D148">
-        <v>4.3e-06</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9547,13 +10445,13 @@
         </is>
       </c>
       <c r="B149">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C149">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D149">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9568,10 +10466,10 @@
         </is>
       </c>
       <c r="B150">
-        <v>6.799999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2.2e-137</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -9589,13 +10487,13 @@
         </is>
       </c>
       <c r="B151">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C151">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D151">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9610,10 +10508,10 @@
         </is>
       </c>
       <c r="B152">
-        <v>1.399999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>5.599999999999999e-136</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -9631,10 +10529,10 @@
         </is>
       </c>
       <c r="B153">
-        <v>6.799999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2.2e-137</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -9652,13 +10550,13 @@
         </is>
       </c>
       <c r="B154">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C154">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D154">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9673,13 +10571,13 @@
         </is>
       </c>
       <c r="B155">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C155">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D155">
-        <v>4.3e-06</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -9697,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -9715,13 +10613,13 @@
         </is>
       </c>
       <c r="B157">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C157">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D157">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -9736,10 +10634,10 @@
         </is>
       </c>
       <c r="B158">
-        <v>5.499999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>1.7e-137</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -9778,13 +10676,13 @@
         </is>
       </c>
       <c r="B160">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C160">
-        <v>0.006</v>
+        <v>0.98</v>
       </c>
       <c r="D160">
-        <v>0.002</v>
+        <v>0.00032</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -9802,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -9823,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -9841,10 +10739,10 @@
         </is>
       </c>
       <c r="B163">
-        <v>9.899999999999996e-231</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -9862,10 +10760,10 @@
         </is>
       </c>
       <c r="B164">
-        <v>4.699999999999998e-232</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>1.5e-137</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -9883,13 +10781,13 @@
         </is>
       </c>
       <c r="B165">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C165">
-        <v>0.0095</v>
+        <v>0.98</v>
       </c>
       <c r="D165">
-        <v>0.00011</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -9907,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -9925,13 +10823,13 @@
         </is>
       </c>
       <c r="B167">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C167">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D167">
-        <v>4.3e-06</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -9970,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -9988,13 +10886,13 @@
         </is>
       </c>
       <c r="B170">
-        <v>0.89</v>
+        <v>0.28</v>
       </c>
       <c r="C170">
-        <v>0.11</v>
+        <v>0.72</v>
       </c>
       <c r="D170">
-        <v>0.00026</v>
+        <v>0.0027</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -10009,13 +10907,13 @@
         </is>
       </c>
       <c r="B171">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C171">
-        <v>0.006</v>
+        <v>0.98</v>
       </c>
       <c r="D171">
-        <v>0.002</v>
+        <v>0.00032</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -10026,70 +10924,70 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>P248</t>
+          <t>P247</t>
         </is>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>P249</t>
+          <t>P248</t>
         </is>
       </c>
       <c r="B173">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>0.008399999999999999</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>0.00025</v>
+        <v>1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>P250</t>
+          <t>P249</t>
         </is>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>P251</t>
+          <t>P250</t>
         </is>
       </c>
       <c r="B175">
@@ -10110,14 +11008,14 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>P252</t>
+          <t>P251</t>
         </is>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -10131,56 +11029,56 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>P253</t>
+          <t>P252</t>
         </is>
       </c>
       <c r="B177">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>0.0058</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D177">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>P256</t>
+          <t>P253</t>
         </is>
       </c>
       <c r="B178">
-        <v>1.599999999999999e-230</v>
+        <v>0.015</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>P257</t>
+          <t>P256</t>
         </is>
       </c>
       <c r="B179">
-        <v>5.499999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -10194,38 +11092,38 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>P258</t>
+          <t>P257</t>
         </is>
       </c>
       <c r="B180">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C180">
-        <v>0.0058</v>
+        <v>1.7e-137</v>
       </c>
       <c r="D180">
-        <v>3.4e-05</v>
+        <v>0</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>P259</t>
+          <t>P258</t>
         </is>
       </c>
       <c r="B181">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C181">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D181">
-        <v>4.3e-06</v>
+        <v>0.00032</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -10236,122 +11134,122 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>P260</t>
+          <t>P259</t>
         </is>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>P261</t>
+          <t>P260</t>
         </is>
       </c>
       <c r="B183">
-        <v>1.199999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>P263</t>
+          <t>P261</t>
         </is>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>6.199999999999999e-136</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>P264</t>
+          <t>P263</t>
         </is>
       </c>
       <c r="B185">
-        <v>7.699999999999997e-232</v>
+        <v>0</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>P265</t>
+          <t>P264</t>
         </is>
       </c>
       <c r="B186">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>0.0092</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D186">
-        <v>1.9e-06</v>
+        <v>0</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>P266</t>
+          <t>P265</t>
         </is>
       </c>
       <c r="B187">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C187">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D187">
-        <v>1.9e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -10362,17 +11260,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>P267</t>
+          <t>P266</t>
         </is>
       </c>
       <c r="B188">
-        <v>0.8100000000000001</v>
+        <v>0.024</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D188">
-        <v>0.19</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -10383,17 +11281,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>P267</t>
         </is>
       </c>
       <c r="B189">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C189">
-        <v>0.0092</v>
+        <v>0.96</v>
       </c>
       <c r="D189">
-        <v>1.9e-06</v>
+        <v>0.038</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -10404,17 +11302,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>P270</t>
+          <t>P269</t>
         </is>
       </c>
       <c r="B190">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C190">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D190">
-        <v>1.5e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -10425,59 +11323,59 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>P271</t>
+          <t>P270</t>
         </is>
       </c>
       <c r="B191">
-        <v>1.099999999999999e-230</v>
+        <v>0.017</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>P272</t>
+          <t>P271</t>
         </is>
       </c>
       <c r="B192">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>4.499999999999999e-136</v>
       </c>
       <c r="D192">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>P273</t>
+          <t>P272</t>
         </is>
       </c>
       <c r="B193">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C193">
-        <v>0.0065</v>
+        <v>0.96</v>
       </c>
       <c r="D193">
-        <v>1.5e-05</v>
+        <v>0.038</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -10488,17 +11386,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>P274</t>
+          <t>P273</t>
         </is>
       </c>
       <c r="B194">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C194">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D194">
-        <v>4.3e-06</v>
+        <v>0.00014</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -10509,17 +11407,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P274</t>
         </is>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0.021</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D195">
-        <v>0.00023</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -10530,59 +11428,59 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>P276</t>
+          <t>P275</t>
         </is>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0.0023</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>P277</t>
+          <t>P276</t>
         </is>
       </c>
       <c r="B197">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>0.0065</v>
+        <v>0</v>
       </c>
       <c r="D197">
-        <v>1.5e-05</v>
+        <v>1</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>P278</t>
+          <t>P277</t>
         </is>
       </c>
       <c r="B198">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C198">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D198">
-        <v>1.5e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -10593,17 +11491,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>P279</t>
+          <t>P278</t>
         </is>
       </c>
       <c r="B199">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C199">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D199">
-        <v>3.4e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -10614,35 +11512,35 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>P280</t>
+          <t>P279</t>
         </is>
       </c>
       <c r="B200">
-        <v>1.099999999999999e-230</v>
+        <v>0.015</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>P281</t>
+          <t>P280</t>
         </is>
       </c>
       <c r="B201">
-        <v>7.699999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>4.499999999999999e-136</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -10656,14 +11554,14 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>P282</t>
+          <t>P281</t>
         </is>
       </c>
       <c r="B202">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -10677,14 +11575,14 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>P283</t>
+          <t>P282</t>
         </is>
       </c>
       <c r="B203">
-        <v>5.499999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -10698,38 +11596,38 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>P284</t>
+          <t>P283</t>
         </is>
       </c>
       <c r="B204">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="C204">
-        <v>0.16</v>
+        <v>1.7e-137</v>
       </c>
       <c r="D204">
-        <v>1.4e-05</v>
+        <v>0</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>P285</t>
+          <t>P284</t>
         </is>
       </c>
       <c r="B205">
-        <v>0.99</v>
+        <v>0.39</v>
       </c>
       <c r="C205">
-        <v>0.0092</v>
+        <v>0.61</v>
       </c>
       <c r="D205">
-        <v>1.9e-06</v>
+        <v>0.00013</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10740,59 +11638,59 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>P286</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>P287</t>
+          <t>P286</t>
         </is>
       </c>
       <c r="B207">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C207">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="D207">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>P288</t>
+          <t>P287</t>
         </is>
       </c>
       <c r="B208">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C208">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D208">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10803,17 +11701,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>P289</t>
+          <t>P288</t>
         </is>
       </c>
       <c r="B209">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C209">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D209">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10824,59 +11722,59 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>P292</t>
+          <t>P289</t>
         </is>
       </c>
       <c r="B210">
-        <v>1.599999999999999e-230</v>
+        <v>0.015</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>P293</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="B211">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C211">
-        <v>0.006</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D211">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>P294</t>
+          <t>P293</t>
         </is>
       </c>
       <c r="B212">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C212">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D212">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10887,59 +11785,59 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>P295</t>
+          <t>P294</t>
         </is>
       </c>
       <c r="B213">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D213">
-        <v>0.98</v>
+        <v>0.00032</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>P296</t>
+          <t>P295</t>
         </is>
       </c>
       <c r="B214">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>0.0058</v>
+        <v>0.14</v>
       </c>
       <c r="D214">
-        <v>3.4e-05</v>
+        <v>0.86</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>P297</t>
+          <t>P296</t>
         </is>
       </c>
       <c r="B215">
-        <v>0.86</v>
+        <v>0.015</v>
       </c>
       <c r="C215">
-        <v>0.14</v>
+        <v>0.98</v>
       </c>
       <c r="D215">
-        <v>3.2e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10950,17 +11848,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>P298</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="B216">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
       <c r="C216">
-        <v>0.0074</v>
+        <v>0.64</v>
       </c>
       <c r="D216">
-        <v>0.0064</v>
+        <v>0.00031</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10971,17 +11869,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>P299</t>
+          <t>P298</t>
         </is>
       </c>
       <c r="B217">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C217">
-        <v>0.0058</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D217">
-        <v>3.4e-05</v>
+        <v>0.048</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10992,59 +11890,59 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>P300</t>
+          <t>P299</t>
         </is>
       </c>
       <c r="B218">
-        <v>1.399999999999999e-230</v>
+        <v>0.015</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>P301</t>
+          <t>P300</t>
         </is>
       </c>
       <c r="B219">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C219">
-        <v>0.008200000000000001</v>
+        <v>5.599999999999999e-136</v>
       </c>
       <c r="D219">
-        <v>4.3e-06</v>
+        <v>0</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>P302</t>
+          <t>P301</t>
         </is>
       </c>
       <c r="B220">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C220">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D220">
-        <v>1.5e-05</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -11055,17 +11953,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>P303</t>
+          <t>P302</t>
         </is>
       </c>
       <c r="B221">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C221">
-        <v>0.0095</v>
+        <v>0.98</v>
       </c>
       <c r="D221">
-        <v>0.00011</v>
+        <v>0.00014</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11076,164 +11974,164 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>P304</t>
+          <t>P303</t>
         </is>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>P305</t>
+          <t>P304</t>
         </is>
       </c>
       <c r="B223">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C223">
-        <v>0.0065</v>
+        <v>0.0009</v>
       </c>
       <c r="D223">
-        <v>1.5e-05</v>
+        <v>1</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>P307</t>
+          <t>P305</t>
         </is>
       </c>
       <c r="B224">
-        <v>1.599999999999999e-230</v>
+        <v>0.017</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>P308</t>
+          <t>P306</t>
         </is>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>P309</t>
+          <t>P307</t>
         </is>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>P310</t>
+          <t>P308</t>
         </is>
       </c>
       <c r="B227">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C227">
-        <v>0.0095</v>
+        <v>0.002</v>
       </c>
       <c r="D227">
-        <v>0.00011</v>
+        <v>1</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>P311</t>
+          <t>P309</t>
         </is>
       </c>
       <c r="B228">
-        <v>1.399999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>1.1e-06</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>P312</t>
+          <t>P310</t>
         </is>
       </c>
       <c r="B229">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D229">
-        <v>0.013</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11244,59 +12142,59 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>P313</t>
+          <t>P311</t>
         </is>
       </c>
       <c r="B230">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>0.0092</v>
+        <v>5.599999999999999e-136</v>
       </c>
       <c r="D230">
-        <v>1.9e-06</v>
+        <v>0</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>P314</t>
+          <t>P312</t>
         </is>
       </c>
       <c r="B231">
-        <v>9.499999999999996e-231</v>
+        <v>0</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>P315</t>
+          <t>P313</t>
         </is>
       </c>
       <c r="B232">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C232">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D232">
-        <v>3.4e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11307,14 +12205,14 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>P316</t>
+          <t>P314</t>
         </is>
       </c>
       <c r="B233">
-        <v>7.399999999999997e-232</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -11328,80 +12226,80 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>P318</t>
+          <t>P315</t>
         </is>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>P319</t>
+          <t>P316</t>
         </is>
       </c>
       <c r="B235">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="C235">
-        <v>0.11</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D235">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>P320</t>
+          <t>P318</t>
         </is>
       </c>
       <c r="B236">
-        <v>6.199999999999997e-231</v>
+        <v>0</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>P321</t>
+          <t>P319</t>
         </is>
       </c>
       <c r="B237">
-        <v>0.8100000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="D237">
-        <v>0.19</v>
+        <v>0.0027</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11412,287 +12310,287 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>P328</t>
+          <t>P320</t>
         </is>
       </c>
       <c r="B238">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C238">
-        <v>0.0058</v>
+        <v>2.399999999999999e-136</v>
       </c>
       <c r="D238">
-        <v>3.4e-05</v>
+        <v>0</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>P330</t>
+          <t>P321</t>
         </is>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0.038</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>P331</t>
+          <t>P328</t>
         </is>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>P332</t>
+          <t>P330</t>
         </is>
       </c>
       <c r="B241">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C241">
-        <v>0.008399999999999999</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D241">
-        <v>0.00025</v>
+        <v>1</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>P333</t>
+          <t>P331</t>
         </is>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D242">
-        <v>0.0041</v>
+        <v>1</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>P334</t>
+          <t>P332</t>
         </is>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>P335</t>
+          <t>P333</t>
         </is>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>0.038</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>P336</t>
+          <t>P334</t>
         </is>
       </c>
       <c r="B245">
-        <v>1.099999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>0.0009</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>P337</t>
+          <t>P335</t>
         </is>
       </c>
       <c r="B246">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="D246">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>P338</t>
+          <t>P336</t>
         </is>
       </c>
       <c r="B247">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C247">
-        <v>0.008399999999999999</v>
+        <v>4.499999999999999e-136</v>
       </c>
       <c r="D247">
-        <v>0.00025</v>
+        <v>0</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>P339</t>
+          <t>P337</t>
         </is>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>P340</t>
+          <t>P338</t>
         </is>
       </c>
       <c r="B249">
-        <v>1.499999999999999e-230</v>
+        <v>0.021</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>P341</t>
+          <t>P339</t>
         </is>
       </c>
       <c r="B250">
-        <v>1.099999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0.0009</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>P342</t>
+          <t>P340</t>
         </is>
       </c>
       <c r="B251">
-        <v>1.599999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -11706,206 +12604,206 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>P343</t>
+          <t>P341</t>
         </is>
       </c>
       <c r="B252">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C252">
-        <v>0.0092</v>
+        <v>4.499999999999999e-136</v>
       </c>
       <c r="D252">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>P344</t>
+          <t>P342</t>
         </is>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>P345</t>
+          <t>P343</t>
         </is>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>0.0016</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>P347</t>
+          <t>P344</t>
         </is>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255">
         <v>0</v>
       </c>
       <c r="D255">
-        <v>0.0041</v>
+        <v>1</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>P348</t>
+          <t>P345</t>
         </is>
       </c>
       <c r="B256">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="D256">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>P349</t>
+          <t>P347</t>
         </is>
       </c>
       <c r="B257">
-        <v>1.499999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>P350</t>
+          <t>P348</t>
         </is>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>P351</t>
+          <t>P349</t>
         </is>
       </c>
       <c r="B259">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C259">
-        <v>0.006</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D259">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>P352</t>
+          <t>P350</t>
         </is>
       </c>
       <c r="B260">
-        <v>1.499999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>P353</t>
+          <t>P351</t>
         </is>
       </c>
       <c r="B261">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C261">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D261">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -11916,122 +12814,122 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>P354</t>
+          <t>P352</t>
         </is>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>P355</t>
+          <t>P353</t>
         </is>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>P356</t>
+          <t>P354</t>
         </is>
       </c>
       <c r="B264">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>P357</t>
+          <t>P355</t>
         </is>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="D265">
-        <v>0.0041</v>
+        <v>0.9</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>P358</t>
+          <t>P356</t>
         </is>
       </c>
       <c r="B266">
-        <v>4.799999999999998e-232</v>
+        <v>0.015</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>P359</t>
+          <t>P357</t>
         </is>
       </c>
       <c r="B267">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C267">
-        <v>0.0058</v>
+        <v>0.96</v>
       </c>
       <c r="D267">
-        <v>3.4e-05</v>
+        <v>0.038</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -12042,164 +12940,164 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>P360</t>
+          <t>P358</t>
         </is>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1.5e-137</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>P361</t>
+          <t>P359</t>
         </is>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>P362</t>
+          <t>P360</t>
         </is>
       </c>
       <c r="B270">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C270">
-        <v>0.0058</v>
+        <v>0.0009</v>
       </c>
       <c r="D270">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>P363</t>
+          <t>P361</t>
         </is>
       </c>
       <c r="B271">
-        <v>1.599999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>P364</t>
+          <t>P362</t>
         </is>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>P365</t>
+          <t>P363</t>
         </is>
       </c>
       <c r="B273">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C273">
-        <v>0.006</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D273">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>P366</t>
+          <t>P364</t>
         </is>
       </c>
       <c r="B274">
-        <v>1.499999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>P367</t>
+          <t>P365</t>
         </is>
       </c>
       <c r="B275">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C275">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D275">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -12210,38 +13108,38 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>P368</t>
+          <t>P366</t>
         </is>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D276">
-        <v>0.0041</v>
+        <v>0</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>P369</t>
+          <t>P367</t>
         </is>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D277">
-        <v>0.0041</v>
+        <v>0.00032</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -12252,17 +13150,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>P370</t>
+          <t>P368</t>
         </is>
       </c>
       <c r="B278">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C278">
-        <v>0.0058</v>
+        <v>0.96</v>
       </c>
       <c r="D278">
-        <v>3.4e-05</v>
+        <v>0.038</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -12273,17 +13171,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>P371</t>
+          <t>P369</t>
         </is>
       </c>
       <c r="B279">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C279">
-        <v>0.0065</v>
+        <v>0.96</v>
       </c>
       <c r="D279">
-        <v>1.5e-05</v>
+        <v>0.038</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -12294,17 +13192,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>P372</t>
+          <t>P370</t>
         </is>
       </c>
       <c r="B280">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C280">
-        <v>0.0068</v>
+        <v>0.98</v>
       </c>
       <c r="D280">
-        <v>0.00087</v>
+        <v>0.00032</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -12315,91 +13213,91 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>P373</t>
+          <t>P371</t>
         </is>
       </c>
       <c r="B281">
-        <v>4.099999999999998e-232</v>
+        <v>0.017</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>P374</t>
+          <t>P372</t>
         </is>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0.00014</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>P375</t>
+          <t>P373</t>
         </is>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>1.3e-137</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>P376</t>
+          <t>P374</t>
         </is>
       </c>
       <c r="B284">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>P377</t>
+          <t>P375</t>
         </is>
       </c>
       <c r="B285">
@@ -12420,17 +13318,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>P378</t>
+          <t>P376</t>
         </is>
       </c>
       <c r="B286">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C286">
-        <v>0.0092</v>
+        <v>0.98</v>
       </c>
       <c r="D286">
-        <v>1.9e-06</v>
+        <v>0.00032</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -12441,38 +13339,38 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>P379</t>
+          <t>P377</t>
         </is>
       </c>
       <c r="B287">
-        <v>1.599999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>0.0009</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>P380</t>
+          <t>P378</t>
         </is>
       </c>
       <c r="B288">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C288">
-        <v>0.008399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="D288">
-        <v>0.00025</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -12483,38 +13381,38 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>P381</t>
+          <t>P379</t>
         </is>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>P382</t>
+          <t>P380</t>
         </is>
       </c>
       <c r="B290">
-        <v>0.99</v>
+        <v>0.021</v>
       </c>
       <c r="C290">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D290">
-        <v>3.4e-05</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -12525,38 +13423,38 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>P383</t>
+          <t>P381</t>
         </is>
       </c>
       <c r="B291">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C291">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="D291">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>P384</t>
+          <t>P382</t>
         </is>
       </c>
       <c r="B292">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C292">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D292">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -12567,17 +13465,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>P385</t>
+          <t>P383</t>
         </is>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D293">
-        <v>0.00052</v>
+        <v>0.00032</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -12588,17 +13486,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>P386</t>
+          <t>P384</t>
         </is>
       </c>
       <c r="B294">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C294">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D294">
-        <v>3.4e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -12609,38 +13507,38 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>P387</t>
+          <t>P385</t>
         </is>
       </c>
       <c r="B295">
-        <v>5.499999999999997e-232</v>
+        <v>0</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>P388</t>
+          <t>P386</t>
         </is>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D296">
-        <v>0.0041</v>
+        <v>0.00032</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -12651,122 +13549,122 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>P389</t>
+          <t>P387</t>
         </is>
       </c>
       <c r="B297">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C297">
-        <v>0.0058</v>
+        <v>1.7e-137</v>
       </c>
       <c r="D297">
-        <v>3.4e-05</v>
+        <v>0</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P388</t>
         </is>
       </c>
       <c r="B298">
-        <v>1.099999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>P391</t>
+          <t>P389</t>
         </is>
       </c>
       <c r="B299">
-        <v>1.599999999999999e-230</v>
+        <v>0.015</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>P392</t>
+          <t>P390</t>
         </is>
       </c>
       <c r="B300">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>4.499999999999999e-136</v>
       </c>
       <c r="D300">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>P393</t>
+          <t>P391</t>
         </is>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>P394</t>
+          <t>P392</t>
         </is>
       </c>
       <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
         <v>0.99</v>
       </c>
-      <c r="C302">
-        <v>0.006</v>
-      </c>
       <c r="D302">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -12777,77 +13675,77 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>P395</t>
+          <t>P393</t>
         </is>
       </c>
       <c r="B303">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C303">
-        <v>0.008200000000000001</v>
+        <v>0</v>
       </c>
       <c r="D303">
-        <v>4.3e-06</v>
+        <v>1</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>P396</t>
+          <t>P394</t>
         </is>
       </c>
       <c r="B304">
-        <v>1.299999999999999e-230</v>
+        <v>0.015</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>P397</t>
+          <t>P395</t>
         </is>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>P398</t>
+          <t>P396</t>
         </is>
       </c>
       <c r="B306">
-        <v>9.899999999999996e-231</v>
+        <v>1</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>5.599999999999999e-136</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -12861,14 +13759,14 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>P399</t>
+          <t>P397</t>
         </is>
       </c>
       <c r="B307">
         <v>0</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -12882,14 +13780,14 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>P400</t>
+          <t>P398</t>
         </is>
       </c>
       <c r="B308">
-        <v>1.499999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -12903,7 +13801,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>P401</t>
+          <t>P399</t>
         </is>
       </c>
       <c r="B309">
@@ -12924,80 +13822,80 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>P402</t>
+          <t>P400</t>
         </is>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310">
-        <v>0</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>P403</t>
+          <t>P401</t>
         </is>
       </c>
       <c r="B311">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C311">
-        <v>0.0092</v>
+        <v>0.0009</v>
       </c>
       <c r="D311">
-        <v>1.9e-06</v>
+        <v>1</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>P404</t>
+          <t>P402</t>
         </is>
       </c>
       <c r="B312">
-        <v>7.699999999999997e-232</v>
+        <v>0</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>P405</t>
+          <t>P403</t>
         </is>
       </c>
       <c r="B313">
-        <v>0.99</v>
+        <v>0.024</v>
       </c>
       <c r="C313">
-        <v>0.015</v>
+        <v>0.98</v>
       </c>
       <c r="D313">
-        <v>8.8e-06</v>
+        <v>1.8e-05</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -13008,119 +13906,119 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>P406</t>
+          <t>P404</t>
         </is>
       </c>
       <c r="B314">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C314">
-        <v>0.0058</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D314">
-        <v>3.4e-05</v>
+        <v>0</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>P407</t>
+          <t>P405</t>
         </is>
       </c>
       <c r="B315">
-        <v>1.099999999999999e-230</v>
+        <v>0.038</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>9.1e-05</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>P408</t>
+          <t>P406</t>
         </is>
       </c>
       <c r="B316">
-        <v>1.599999999999999e-230</v>
+        <v>0.015</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D316">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>P409</t>
+          <t>P407</t>
         </is>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317">
-        <v>0</v>
+        <v>4.499999999999999e-136</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>P410</t>
+          <t>P408</t>
         </is>
       </c>
       <c r="B318">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C318">
-        <v>0.0058</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D318">
-        <v>3.4e-05</v>
+        <v>0</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>P411</t>
+          <t>P409</t>
         </is>
       </c>
       <c r="B319">
         <v>0</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -13134,59 +14032,59 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>P412</t>
+          <t>P410</t>
         </is>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>P413</t>
+          <t>P411</t>
         </is>
       </c>
       <c r="B321">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C321">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="D321">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>P415</t>
+          <t>P412</t>
         </is>
       </c>
       <c r="B322">
         <v>0</v>
       </c>
       <c r="C322">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -13197,35 +14095,35 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>P416</t>
+          <t>P413</t>
         </is>
       </c>
       <c r="B323">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D323">
-        <v>0.98</v>
+        <v>0.00032</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>P417</t>
+          <t>P415</t>
         </is>
       </c>
       <c r="B324">
         <v>0</v>
       </c>
       <c r="C324">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -13239,17 +14137,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>P418</t>
+          <t>P416</t>
         </is>
       </c>
       <c r="B325">
         <v>0</v>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D325">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -13260,59 +14158,59 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>P419</t>
+          <t>P417</t>
         </is>
       </c>
       <c r="B326">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C326">
-        <v>0.0058</v>
+        <v>0.00069</v>
       </c>
       <c r="D326">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>P420</t>
+          <t>P418</t>
         </is>
       </c>
       <c r="B327">
-        <v>7.399999999999997e-232</v>
+        <v>0</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>P421</t>
+          <t>P419</t>
         </is>
       </c>
       <c r="B328">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C328">
-        <v>0.008200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D328">
-        <v>4.3e-06</v>
+        <v>0.00032</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -13323,59 +14221,59 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>P422</t>
+          <t>P420</t>
         </is>
       </c>
       <c r="B329">
         <v>1</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D329">
-        <v>0.00023</v>
+        <v>0</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>P423</t>
+          <t>P421</t>
         </is>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>P425</t>
+          <t>P422</t>
         </is>
       </c>
       <c r="B331">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="C331">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="D331">
-        <v>0.00026</v>
+        <v>0.0023</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -13386,56 +14284,56 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>P426</t>
+          <t>P423</t>
         </is>
       </c>
       <c r="B332">
-        <v>9.899999999999996e-231</v>
+        <v>0</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>0.0009</v>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>P427</t>
+          <t>P425</t>
         </is>
       </c>
       <c r="B333">
-        <v>4.699999999999998e-232</v>
+        <v>0.28</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="D333">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>P428</t>
+          <t>P426</t>
         </is>
       </c>
       <c r="B334">
-        <v>9.899999999999996e-231</v>
+        <v>1</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -13449,101 +14347,101 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>P429</t>
+          <t>P427</t>
         </is>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335">
-        <v>0</v>
+        <v>1.5e-137</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>P430</t>
+          <t>P428</t>
         </is>
       </c>
       <c r="B336">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C336">
-        <v>0.0058</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D336">
-        <v>3.4e-05</v>
+        <v>0</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>P431</t>
+          <t>P429</t>
         </is>
       </c>
       <c r="B337">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C337">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="D337">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>P432</t>
+          <t>P430</t>
         </is>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C338">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D338">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>P433</t>
+          <t>P431</t>
         </is>
       </c>
       <c r="B339">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C339">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D339">
-        <v>1.5e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -13554,38 +14452,38 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>P434</t>
+          <t>P432</t>
         </is>
       </c>
       <c r="B340">
-        <v>1.599999999999999e-230</v>
+        <v>0</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>0.00039</v>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>P435</t>
+          <t>P433</t>
         </is>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D341">
-        <v>0.0018</v>
+        <v>0.00014</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -13596,38 +14494,38 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>P436</t>
+          <t>P434</t>
         </is>
       </c>
       <c r="B342">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C342">
-        <v>0.0065</v>
+        <v>6.399999999999998e-136</v>
       </c>
       <c r="D342">
-        <v>1.5e-05</v>
+        <v>0</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>P437</t>
+          <t>P435</t>
         </is>
       </c>
       <c r="B343">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C343">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D343">
-        <v>3.4e-05</v>
+        <v>0.018</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -13638,17 +14536,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>P438</t>
+          <t>P436</t>
         </is>
       </c>
       <c r="B344">
-        <v>0.99</v>
+        <v>0.017</v>
       </c>
       <c r="C344">
-        <v>0.0058</v>
+        <v>0.98</v>
       </c>
       <c r="D344">
-        <v>3.4e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -13659,17 +14557,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>P439</t>
+          <t>P437</t>
         </is>
       </c>
       <c r="B345">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C345">
-        <v>0.0065</v>
+        <v>0.98</v>
       </c>
       <c r="D345">
-        <v>1.5e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -13680,17 +14578,17 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>P440</t>
+          <t>P438</t>
         </is>
       </c>
       <c r="B346">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C346">
-        <v>0.008399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="D346">
-        <v>0.00025</v>
+        <v>0.00032</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -13701,17 +14599,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>P441</t>
+          <t>P439</t>
         </is>
       </c>
       <c r="B347">
-        <v>0.8100000000000001</v>
+        <v>0.017</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D347">
-        <v>0.19</v>
+        <v>0.00014</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -13722,185 +14620,185 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>P442</t>
+          <t>P440</t>
         </is>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D348">
-        <v>1</v>
+        <v>4.1e-05</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>P443</t>
+          <t>P441</t>
         </is>
       </c>
       <c r="B349">
-        <v>5.299999999999998e-232</v>
+        <v>0</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>P444</t>
+          <t>P442</t>
         </is>
       </c>
       <c r="B350">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>5.6e-06</v>
       </c>
       <c r="D350">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>P445</t>
+          <t>P443</t>
         </is>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351">
-        <v>0</v>
+        <v>1.7e-137</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>P446</t>
+          <t>P444</t>
         </is>
       </c>
       <c r="B352">
-        <v>9.899999999999996e-231</v>
+        <v>0</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D352">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>P447</t>
+          <t>P445</t>
         </is>
       </c>
       <c r="B353">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C353">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="D353">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>P448</t>
+          <t>P446</t>
         </is>
       </c>
       <c r="B354">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C354">
-        <v>0.0058</v>
+        <v>3.899999999999999e-136</v>
       </c>
       <c r="D354">
-        <v>3.4e-05</v>
+        <v>0</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>P450</t>
+          <t>P447</t>
         </is>
       </c>
       <c r="B355">
-        <v>7.399999999999997e-232</v>
+        <v>0.015</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>P451</t>
+          <t>P448</t>
         </is>
       </c>
       <c r="B356">
-        <v>0.99</v>
+        <v>0.015</v>
       </c>
       <c r="C356">
-        <v>0.006</v>
+        <v>0.98</v>
       </c>
       <c r="D356">
-        <v>0.002</v>
+        <v>0.00032</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -13911,77 +14809,77 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>P452</t>
+          <t>P450</t>
         </is>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>2.4e-137</v>
       </c>
       <c r="D357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>testicle</t>
+          <t>pituitary</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>P453</t>
+          <t>P451</t>
         </is>
       </c>
       <c r="B358">
-        <v>1.099999999999999e-230</v>
+        <v>0.015</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D358">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>pituitary</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>P454</t>
+          <t>P452</t>
         </is>
       </c>
       <c r="B359">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C359">
-        <v>0.0058</v>
+        <v>1.1e-06</v>
       </c>
       <c r="D359">
-        <v>3.4e-05</v>
+        <v>1</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>testicle</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>P455</t>
+          <t>P453</t>
         </is>
       </c>
       <c r="B360">
-        <v>1.099999999999999e-230</v>
+        <v>1</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>4.499999999999999e-136</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -13995,19 +14893,61 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
+          <t>P454</t>
+        </is>
+      </c>
+      <c r="B361">
+        <v>0.015</v>
+      </c>
+      <c r="C361">
+        <v>0.98</v>
+      </c>
+      <c r="D361">
+        <v>0.00032</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>P455</t>
+        </is>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>4.499999999999999e-136</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
           <t>P458</t>
         </is>
       </c>
-      <c r="B361">
-        <v>0.98</v>
-      </c>
-      <c r="C361">
-        <v>0</v>
-      </c>
-      <c r="D361">
-        <v>0.019</v>
-      </c>
-      <c r="E361" t="inlineStr">
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0.84</v>
+      </c>
+      <c r="D363">
+        <v>0.16</v>
+      </c>
+      <c r="E363" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>

--- a/report/tables.xlsx
+++ b/report/tables.xlsx
@@ -9741,7 +9741,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ns (p = 0.085)</t>
+          <t>ns (p = 0.082)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ns (p = 0.064)</t>
+          <t>ns (p = 0.062)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ns (p = 0.21)</t>
+          <t>ns (p = 0.2)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -10383,33 +10383,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0 - 150 U/L: 11% (24)
-&gt; 150 U/L: 89% (195)
+          <t>0 - 250 U/L: 80% (176)
+&gt; 250 U/L: 20% (43)
 complete: n = 219</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0 - 150 U/L: 4.4% (4)
-&gt; 150 U/L: 96% (86)
+          <t>0 - 250 U/L: 69% (62)
+&gt; 250 U/L: 31% (28)
 complete: n = 90</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0 - 150 U/L: 8.9% (9)
-&gt; 150 U/L: 91% (92)
+          <t>0 - 250 U/L: 68% (69)
+&gt; 250 U/L: 32% (32)
 complete: n = 101</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ns (p = 0.22)</t>
+          <t>p = 0.031</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>V = 0.09</t>
+          <t>V = 0.14</t>
         </is>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>p = 0.046</t>
+          <t>p = 0.044</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -10750,7 +10750,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>p = 0.0038</t>
+          <t>p = 0.0034</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10925,7 +10925,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>p = 0.0053</t>
+          <t>p = 0.0048</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>p = 0.036</t>
+          <t>p = 0.032</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -11118,80 +11118,116 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>LDH strata</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0 - 250 U/L: 88% (135)
+&gt; 250 U/L: 12% (18)
+complete: n = 153</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0 - 250 U/L: 62% (40)
+&gt; 250 U/L: 38% (25)
+complete: n = 65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V = 0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Retroperitoneal lymphadenectomy</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2.9% (4)
 complete: n = 137</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>13% (8)
 complete: n = 61</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>p = 0.041</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>p = 0.038</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>V = 0.2</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>pituitary</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Tumor size, cm</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>2.2 [IQR: 1.5 - 3.5]
 range: 0.8 - 11
 complete: n = 62</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>4.5 [IQR: 2.5 - 7.5]
 range: 1 - 15
 complete: n = 27</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>p = 0.0012</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>r = 0.41</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>pituitary</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Tumor stage</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>I: 82% (51)
 II: 15% (9)
@@ -11199,7 +11235,7 @@
 complete: n = 62</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>I: 43% (12)
 II: 46% (13)
@@ -11207,258 +11243,294 @@
 complete: n = 28</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p = 0.0048</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p = 0.004</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>V = 0.4</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>pituitary</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Lymphovascular invasion</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>9.7% (6)
 complete: n = 62</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>57% (16)
 complete: n = 28</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>V = 0.51</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>pituitary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Histology</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>seminoma: 96% (69)
 NSGCT: 4.2% (3)
 complete: n = 72</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>seminoma: 77% (24)
 NSGCT: 23% (7)
 complete: n = 31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>p = 0.038</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>p = 0.034</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>V = 0.29</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>pituitary</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Embyonal cancer, %</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>0 [IQR: 0 - 0]
 range: 0 - 50
 complete: n = 72</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0 [IQR: 0 - 0]
 range: 0 - 100
 complete: n = 31</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>p = 0.0019</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>p = 0.0015</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>r = 0.36</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>pituitary</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Seminoma, %</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>100 [IQR: 100 - 100]
 range: 0 - 100
 complete: n = 72</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>100 [IQR: 100 - 100]
 range: 0 - 100
 complete: n = 31</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>p = 0.019</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p = 0.016</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>r = 0.28</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>pituitary</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Embryonic cancer &gt;= 75%</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>0% (0)
 complete: n = 72</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>13% (4)
 complete: n = 31</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p = 0.038</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>p = 0.034</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>V = 0.31</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>pituitary</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>LDH, U/L</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>190 [IQR: 170 - 240]
 range: 140 - 2900
 complete: n = 71</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>270 [IQR: 210 - 340]
 range: 140 - 1600
 complete: n = 30</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>p = 0.0071</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>p = 0.006</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>r = 0.32</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>pituitary</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LDH strata</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0 - 250 U/L: 82% (58)
+&gt; 250 U/L: 18% (13)
+complete: n = 71</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0 - 250 U/L: 37% (11)
+&gt; 250 U/L: 63% (19)
+complete: n = 30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>V = 0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pituitary</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Chemotherapy</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>41% (24)
 complete: n = 59</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>71% (20)
 complete: n = 28</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>p = 0.043</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>p = 0.039</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>V = 0.29</t>
         </is>
@@ -12133,7 +12205,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0 - 150 U/L, &gt; 150 U/L</t>
+          <t>0 - 250 U/L, &gt; 250 U/L</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12746,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12865,41 +12937,72 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>LDH strata</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0 - 250 U/L: 74% (373)
+&gt; 250 U/L: 26% (130)
+complete: n = 503</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0 - 250 U/L: 96% (27)
+&gt; 250 U/L: 3.6% (1)
+complete: n = 28</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>p = 0.015</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>V = 0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Total testosterone, ng/mL</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>4.4 [IQR: 3.3 - 6]
 range: 1 - 17
 complete: n = 452</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>5.8 [IQR: 4.4 - 8.8]
 range: 3 - 13
 complete: n = 29</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>r = 0.15</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Total testosterone strata</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0 - 3.5 ng/mL: 27% (122)
 3.5 - 9 ng/mL: 64% (291)
@@ -12907,7 +13010,7 @@
 complete: n = 452</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>0 - 3.5 ng/mL: 10% (3)
 3.5 - 9 ng/mL: 66% (19)
@@ -12915,136 +13018,136 @@
 complete: n = 29</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>p = 0.0076</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>V = 0.14</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>SHBG, nmol/L</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>32 [IQR: 22 - 43]
 range: 6.3 - 160
 complete: n = 47</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>40 [IQR: 34 - 60]
 range: 30 - 67
 complete: n = 7</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>p = 0.049</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>r = 0.27</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>PRL, µU/mL</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>170 [IQR: 100 - 250]
 range: 0 - 4400
 complete: n = 448</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>0 [IQR: 0 - 120]
 range: 0 - 2100
 complete: n = 28</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>r = 0.22</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>FSH, mU/mL</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>5.4 [IQR: 2.1 - 10]
 range: 0 - 100
 complete: n = 447</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2.8 [IQR: 0.13 - 4.9]
 range: 0.05 - 42
 complete: n = 28</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>p = 0.02</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>r = 0.11</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>LH, mU/mL</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>3.3 [IQR: 1.6 - 5.5]
 range: 0 - 47
 complete: n = 449</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>2 [IQR: 0.12 - 4.1]
 range: 0.09 - 15
 complete: n = 28</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>p = 0.02</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>r = 0.11</t>
         </is>
@@ -13809,7 +13912,7 @@
         <v>2.9</v>
       </c>
       <c r="E39">
-        <v>0.041</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="40">
@@ -15178,8 +15281,8 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0 - 150 U/L: 8.5% (43)
-&gt; 150 U/L: 91% (460)
+          <t>0 - 250 U/L: 74% (373)
+&gt; 250 U/L: 26% (130)
 complete: n = 503</t>
         </is>
       </c>
@@ -15601,7 +15704,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ns (p = 0.44)</t>
+          <t>ns (p = 0.43)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -15632,7 +15735,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ns (p = 0.52)</t>
+          <t>ns (p = 0.5)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -15760,7 +15863,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ns (p = 0.061)</t>
+          <t>ns (p = 0.059)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -15961,26 +16064,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0 - 150 U/L: 9.2% (32)
-&gt; 150 U/L: 91% (315)
+          <t>0 - 250 U/L: 78% (271)
+&gt; 250 U/L: 22% (76)
 complete: n = 347</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0 - 150 U/L: 7.1% (11)
-&gt; 150 U/L: 93% (145)
+          <t>0 - 250 U/L: 65% (102)
+&gt; 250 U/L: 35% (54)
 complete: n = 156</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ns (p = 0.56)</t>
+          <t>p = 0.0062</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>V = 0.036</t>
+          <t>V = 0.13</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16200,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ns (p = 0.069)</t>
+          <t>ns (p = 0.066)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -16414,7 +16517,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ns (p = 0.079)</t>
+          <t>ns (p = 0.077)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -16476,7 +16579,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ns (p = 0.18)</t>
+          <t>ns (p = 0.17)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
